--- a/biology/Botanique/Heliotropium_foertherianum/Heliotropium_foertherianum.xlsx
+++ b/biology/Botanique/Heliotropium_foertherianum/Heliotropium_foertherianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tournefortia argentea, appelé veloutier aux Mascareignes, est un arbuste de la famille des Boraginaceae poussant sur le haut des plages sableuses.
 Il a récemment été renommé Heliotropium foertherianum.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste à cime étalée en ombelle, pouvant atteindre 5 m de haut.
 Les feuilles densément pubescentes, argentées, obovées-oblancéolées, de 10-30 × 3-12 cm se regroupent à l'extrémité des rameaux.
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est très largement réparti dans les régions tropicales et subtropicales puisqu'on le trouve en Australie, Chine, Japon, Indonésie, Philippines, Sri Lanka, Vietnam, îles du Pacifique (Nouvelle-Calédonie, Polynésie), Kenya, Madagascar, Mozambique, Pitcairn, Tanzanie.
 On le trouve communément à La Réunion en bord de mer, ainsi qu'à l'île Maurice.
@@ -580,7 +596,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les Mascareignes, il est planté dans les jardins des bords de mer à des fins ornementales.
 Jadis, les feuilles au goût de persil étaient consommées ou fumées.
@@ -616,7 +634,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Messerschmidia argentea (L.) I. M. Johnst.
 Argusia argentea (L.) Heine
@@ -650,7 +670,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">[PDF] Harley I. Manner &amp; Craig R. Elevitch, Tournefortia argentea (tree heliotrope)  sur agroforestry.net
 eFlora
